--- a/data/Cochamó.xlsx
+++ b/data/Cochamó.xlsx
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO SECTOR CHAIQUEN, COMUNA DE COCHAMO, X REGION N° PERT 201101021 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS , POCOIHUEN ALTO I, ESTERO RELONCAVI, COMUNA DE COCHAMO, N°PERT 96101012 (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,7 +6295,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Miguel Nenadovich Del Río</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133628&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO SECTOR POCOIHUEN COMUNA DE COCHAMO X REGION, N PERT 201101022 (e-seia)</t>
+          <t>CENTRO DE CULTIVO SECTOR CHAIQUEN, COMUNA DE COCHAMO, X REGION N° PERT 201101021 (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,7 +6343,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>CALETA BAY AGUA DULCE SpA</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133720&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, ESTERO RELONCAVI, COMUNA DE COCHAMO, X REGION N° PERT 96101013 (e-seia)</t>
+          <t>CENTRO DE CULTIVO SECTOR POCOIHUEN COMUNA DE COCHAMO X REGION, N PERT 201101022 (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,7 +6391,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>CALETA BAY AGUA DULCE SpA</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133720&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PUNTA TRES CRUCES, ALERCE, COMUNA DE COCHAMO, X REGION N°PERT 93101125 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, ESTERO RELONCAVI, COMUNA DE COCHAMO, X REGION N° PERT 96101013 (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS ESTE PUNTA IGLESIA COMUNA DE COCHAMO X REGION N° PERT 93101124 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PUNTA TRES CRUCES, ALERCE, COMUNA DE COCHAMO, X REGION N°PERT 93101125 (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS , POCOIHUEN ALTO I, ESTERO RELONCAVI, COMUNA DE COCHAMO, N°PERT 96101012 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS ESTE PUNTA IGLESIA COMUNA DE COCHAMO X REGION N° PERT 93101124 (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Miguel Nenadovich Del Río</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133628&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Punta Peñasmo (N°Sol. 200101048) (e-seia)</t>
+          <t>Este Morro Chico (N° de Sol. 200101041) (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Andrés Cornelio Vallejos Gatica</t>
+          <t>Jaquelinne De Lourdes Castillo Rodríguez</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=130936&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=128144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Punta Chaparano (N° Sol. 200101045) (e-seia)</t>
+          <t>Punta Peñasmo (N°Sol. 200101048) (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=130936&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmonideos Farellones Marimelli, estero de Reloncaví, Comuna de Cochamó, X región, Nº Pert. 94101037 (e-seia)</t>
+          <t>Punta Chaparano (N° Sol. 200101045) (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,11 +7015,11 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Salmones Caleta Bay S.A.</t>
+          <t>Andrés Cornelio Vallejos Gatica</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Este Morro Chico (N° de Sol. 200101041) (e-seia)</t>
+          <t>Centro de engorda de salmonideos Farellones Marimelli, estero de Reloncaví, Comuna de Cochamó, X región, Nº Pert. 94101037 (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,11 +7063,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Jaquelinne De Lourdes Castillo Rodríguez</t>
+          <t>Salmones Caleta Bay S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=128144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Ampliación de la Concesión Centro de Engorda Punta Zenteno, Aguas Claras S.A. (e-seia)</t>
+          <t>Ampliación de la Concesión Centro de Engorda Serapio, Aguas Claras S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,11 +7351,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>SALMONES MAULLIN LTDA</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>394</v>
+        <v>656</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Ampliación de la Concesión Centro de Engorda Sotomó, Aguas Claras S.A. (e-seia)</t>
+          <t>Ampliación de la Concesión Centro de Engorda Punta Zenteno, Aguas Claras S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7403,7 +7403,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>656</v>
+        <v>394</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Ampliación de la Concesión Centro de Engorda Serapio, Aguas Claras S.A. (e-seia)</t>
+          <t>Ampliación de la Concesión Centro de Engorda Sotomó, Aguas Claras S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,7 +7447,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>SALMONES MAULLIN LTDA</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">

--- a/data/Cochamó.xlsx
+++ b/data/Cochamó.xlsx
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS , POCOIHUEN ALTO I, ESTERO RELONCAVI, COMUNA DE COCHAMO, N°PERT 96101012 (e-seia)</t>
+          <t>CENTRO DE CULTIVO SECTOR CHAIQUEN, COMUNA DE COCHAMO, X REGION N° PERT 201101021 (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,7 +6295,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Miguel Nenadovich Del Río</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133628&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO SECTOR CHAIQUEN, COMUNA DE COCHAMO, X REGION N° PERT 201101021 (e-seia)</t>
+          <t>CENTRO DE CULTIVO SECTOR POCOIHUEN COMUNA DE COCHAMO X REGION, N PERT 201101022 (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,7 +6343,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>CALETA BAY AGUA DULCE SpA</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133720&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO SECTOR POCOIHUEN COMUNA DE COCHAMO X REGION, N PERT 201101022 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, ESTERO RELONCAVI, COMUNA DE COCHAMO, X REGION N° PERT 96101013 (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,7 +6391,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>CALETA BAY AGUA DULCE SpA</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133720&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, ESTERO RELONCAVI, COMUNA DE COCHAMO, X REGION N° PERT 96101013 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PUNTA TRES CRUCES, ALERCE, COMUNA DE COCHAMO, X REGION N°PERT 93101125 (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PUNTA TRES CRUCES, ALERCE, COMUNA DE COCHAMO, X REGION N°PERT 93101125 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS ESTE PUNTA IGLESIA COMUNA DE COCHAMO X REGION N° PERT 93101124 (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS ESTE PUNTA IGLESIA COMUNA DE COCHAMO X REGION N° PERT 93101124 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS , POCOIHUEN ALTO I, ESTERO RELONCAVI, COMUNA DE COCHAMO, N°PERT 96101012 (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Miguel Nenadovich Del Río</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133628&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Este Morro Chico (N° de Sol. 200101041) (e-seia)</t>
+          <t>Punta Peñasmo (N°Sol. 200101048) (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Jaquelinne De Lourdes Castillo Rodríguez</t>
+          <t>Andrés Cornelio Vallejos Gatica</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=128144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=130936&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Punta Peñasmo (N°Sol. 200101048) (e-seia)</t>
+          <t>Punta Chaparano (N° Sol. 200101045) (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=130936&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Punta Chaparano (N° Sol. 200101045) (e-seia)</t>
+          <t>Centro de engorda de salmonideos Farellones Marimelli, estero de Reloncaví, Comuna de Cochamó, X región, Nº Pert. 94101037 (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,11 +7015,11 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Andrés Cornelio Vallejos Gatica</t>
+          <t>Salmones Caleta Bay S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmonideos Farellones Marimelli, estero de Reloncaví, Comuna de Cochamó, X región, Nº Pert. 94101037 (e-seia)</t>
+          <t>Este Morro Chico (N° de Sol. 200101041) (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,11 +7063,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Salmones Caleta Bay S.A.</t>
+          <t>Jaquelinne De Lourdes Castillo Rodríguez</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=128144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Ampliación de la Concesión Centro de Engorda Serapio, Aguas Claras S.A. (e-seia)</t>
+          <t>Ampliación de la Concesión Centro de Engorda Punta Zenteno, Aguas Claras S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,11 +7351,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>SALMONES MAULLIN LTDA</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>656</v>
+        <v>394</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Ampliación de la Concesión Centro de Engorda Punta Zenteno, Aguas Claras S.A. (e-seia)</t>
+          <t>Ampliación de la Concesión Centro de Engorda Sotomó, Aguas Claras S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7403,7 +7403,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>394</v>
+        <v>656</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Ampliación de la Concesión Centro de Engorda Sotomó, Aguas Claras S.A. (e-seia)</t>
+          <t>Ampliación de la Concesión Centro de Engorda Serapio, Aguas Claras S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,7 +7447,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>SALMONES MAULLIN LTDA</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">

--- a/data/Cochamó.xlsx
+++ b/data/Cochamó.xlsx
@@ -2887,7 +2887,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Salmones Caleta Bay S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Salmones Caleta Bay S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Salmones Caleta Bay S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">

--- a/data/Cochamó.xlsx
+++ b/data/Cochamó.xlsx
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SALMONES MAULLIN LTDA</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SALMONES MAULLIN LTDA</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SALMONES MAULLIN LTDA</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Salmones Maullín Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>SALMONES MAULLIN LTDA</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -4855,7 +4855,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>SALMONES MAULLIN LIMITADA - -</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -7399,7 +7399,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>SALMONES MAULLIN LTDA</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F147" t="n">
@@ -7447,7 +7447,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>SALMONES MAULLIN LTDA</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F148" t="n">

--- a/data/Cochamó.xlsx
+++ b/data/Cochamó.xlsx
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS , POCOIHUEN ALTO I, ESTERO RELONCAVI, COMUNA DE COCHAMO, N°PERT 96101012 (e-seia)</t>
+          <t>CENTRO DE CULTIVO SECTOR CHAIQUEN, COMUNA DE COCHAMO, X REGION N° PERT 201101021 (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,7 +6295,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Miguel Nenadovich Del Río</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133628&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO SECTOR CHAIQUEN, COMUNA DE COCHAMO, X REGION N° PERT 201101021 (e-seia)</t>
+          <t>CENTRO DE CULTIVO SECTOR POCOIHUEN COMUNA DE COCHAMO X REGION, N PERT 201101022 (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,7 +6343,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>CALETA BAY AGUA DULCE SpA</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133720&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO SECTOR POCOIHUEN COMUNA DE COCHAMO X REGION, N PERT 201101022 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, ESTERO RELONCAVI, COMUNA DE COCHAMO, X REGION N° PERT 96101013 (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,7 +6391,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>CALETA BAY AGUA DULCE SpA</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133720&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, ESTERO RELONCAVI, COMUNA DE COCHAMO, X REGION N° PERT 96101013 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PUNTA TRES CRUCES, ALERCE, COMUNA DE COCHAMO, X REGION N°PERT 93101125 (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PUNTA TRES CRUCES, ALERCE, COMUNA DE COCHAMO, X REGION N°PERT 93101125 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS ESTE PUNTA IGLESIA COMUNA DE COCHAMO X REGION N° PERT 93101124 (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS ESTE PUNTA IGLESIA COMUNA DE COCHAMO X REGION N° PERT 93101124 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS , POCOIHUEN ALTO I, ESTERO RELONCAVI, COMUNA DE COCHAMO, N°PERT 96101012 (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Miguel Nenadovich Del Río</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133628&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Este Morro Chico (N° de Sol. 200101041) (e-seia)</t>
+          <t>Punta Peñasmo (N°Sol. 200101048) (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Jaquelinne De Lourdes Castillo Rodríguez</t>
+          <t>Andrés Cornelio Vallejos Gatica</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=128144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=130936&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Punta Peñasmo (N°Sol. 200101048) (e-seia)</t>
+          <t>Punta Chaparano (N° Sol. 200101045) (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=130936&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Punta Chaparano (N° Sol. 200101045) (e-seia)</t>
+          <t>Centro de engorda de salmonideos Farellones Marimelli, estero de Reloncaví, Comuna de Cochamó, X región, Nº Pert. 94101037 (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,11 +7015,11 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Andrés Cornelio Vallejos Gatica</t>
+          <t>Salmones Caleta Bay S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmonideos Farellones Marimelli, estero de Reloncaví, Comuna de Cochamó, X región, Nº Pert. 94101037 (e-seia)</t>
+          <t>Este Morro Chico (N° de Sol. 200101041) (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,11 +7063,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Salmones Caleta Bay S.A.</t>
+          <t>Jaquelinne De Lourdes Castillo Rodríguez</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=128144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Ampliación de la Concesión Centro de Engorda Serapio, Aguas Claras S.A. (e-seia)</t>
+          <t>Ampliación de la Concesión Centro de Engorda Punta Zenteno, Aguas Claras S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,11 +7351,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>656</v>
+        <v>394</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Ampliación de la Concesión Centro de Engorda Punta Zenteno, Aguas Claras S.A. (e-seia)</t>
+          <t>Ampliación de la Concesión Centro de Engorda Sotomó, Aguas Claras S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7403,7 +7403,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>394</v>
+        <v>656</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Ampliación de la Concesión Centro de Engorda Sotomó, Aguas Claras S.A. (e-seia)</t>
+          <t>Ampliación de la Concesión Centro de Engorda Serapio, Aguas Claras S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,7 +7447,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">

--- a/data/Cochamó.xlsx
+++ b/data/Cochamó.xlsx
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO SECTOR CHAIQUEN, COMUNA DE COCHAMO, X REGION N° PERT 201101021 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS , POCOIHUEN ALTO I, ESTERO RELONCAVI, COMUNA DE COCHAMO, N°PERT 96101012 (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,7 +6295,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Miguel Nenadovich Del Río</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133628&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO SECTOR POCOIHUEN COMUNA DE COCHAMO X REGION, N PERT 201101022 (e-seia)</t>
+          <t>CENTRO DE CULTIVO SECTOR CHAIQUEN, COMUNA DE COCHAMO, X REGION N° PERT 201101021 (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,7 +6343,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>CALETA BAY AGUA DULCE SpA</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133720&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, ESTERO RELONCAVI, COMUNA DE COCHAMO, X REGION N° PERT 96101013 (e-seia)</t>
+          <t>CENTRO DE CULTIVO SECTOR POCOIHUEN COMUNA DE COCHAMO X REGION, N PERT 201101022 (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,7 +6391,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>CALETA BAY AGUA DULCE SpA</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133720&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PUNTA TRES CRUCES, ALERCE, COMUNA DE COCHAMO, X REGION N°PERT 93101125 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, ESTERO RELONCAVI, COMUNA DE COCHAMO, X REGION N° PERT 96101013 (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS ESTE PUNTA IGLESIA COMUNA DE COCHAMO X REGION N° PERT 93101124 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PUNTA TRES CRUCES, ALERCE, COMUNA DE COCHAMO, X REGION N°PERT 93101125 (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS , POCOIHUEN ALTO I, ESTERO RELONCAVI, COMUNA DE COCHAMO, N°PERT 96101012 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS ESTE PUNTA IGLESIA COMUNA DE COCHAMO X REGION N° PERT 93101124 (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Miguel Nenadovich Del Río</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133628&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Punta Peñasmo (N°Sol. 200101048) (e-seia)</t>
+          <t>Este Morro Chico (N° de Sol. 200101041) (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Andrés Cornelio Vallejos Gatica</t>
+          <t>Jaquelinne De Lourdes Castillo Rodríguez</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=130936&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=128144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Punta Chaparano (N° Sol. 200101045) (e-seia)</t>
+          <t>Punta Peñasmo (N°Sol. 200101048) (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=130936&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmonideos Farellones Marimelli, estero de Reloncaví, Comuna de Cochamó, X región, Nº Pert. 94101037 (e-seia)</t>
+          <t>Punta Chaparano (N° Sol. 200101045) (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,11 +7015,11 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Salmones Caleta Bay S.A.</t>
+          <t>Andrés Cornelio Vallejos Gatica</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Este Morro Chico (N° de Sol. 200101041) (e-seia)</t>
+          <t>Centro de engorda de salmonideos Farellones Marimelli, estero de Reloncaví, Comuna de Cochamó, X región, Nº Pert. 94101037 (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,11 +7063,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Jaquelinne De Lourdes Castillo Rodríguez</t>
+          <t>Salmones Caleta Bay S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=128144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Ampliación de la Concesión Centro de Engorda Punta Zenteno, Aguas Claras S.A. (e-seia)</t>
+          <t>Ampliación de la Concesión Centro de Engorda Serapio, Aguas Claras S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,11 +7351,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>394</v>
+        <v>656</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Ampliación de la Concesión Centro de Engorda Sotomó, Aguas Claras S.A. (e-seia)</t>
+          <t>Ampliación de la Concesión Centro de Engorda Punta Zenteno, Aguas Claras S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7403,7 +7403,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>656</v>
+        <v>394</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Ampliación de la Concesión Centro de Engorda Serapio, Aguas Claras S.A. (e-seia)</t>
+          <t>Ampliación de la Concesión Centro de Engorda Sotomó, Aguas Claras S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,7 +7447,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">

--- a/data/Cochamó.xlsx
+++ b/data/Cochamó.xlsx
@@ -7111,7 +7111,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AquaChile S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">

--- a/data/Cochamó.xlsx
+++ b/data/Cochamó.xlsx
@@ -7159,7 +7159,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>ORIZON S.A.</t>
+          <t>Empresa Pesquera Apiao S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>ORIZON S.A.</t>
+          <t>Empresa Pesquera Apiao S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">

--- a/data/Cochamó.xlsx
+++ b/data/Cochamó.xlsx
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS , POCOIHUEN ALTO I, ESTERO RELONCAVI, COMUNA DE COCHAMO, N°PERT 96101012 (e-seia)</t>
+          <t>CENTRO DE CULTIVO SECTOR CHAIQUEN, COMUNA DE COCHAMO, X REGION N° PERT 201101021 (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,7 +6295,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Miguel Nenadovich Del Río</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133628&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO SECTOR CHAIQUEN, COMUNA DE COCHAMO, X REGION N° PERT 201101021 (e-seia)</t>
+          <t>CENTRO DE CULTIVO SECTOR POCOIHUEN COMUNA DE COCHAMO X REGION, N PERT 201101022 (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,7 +6343,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>CALETA BAY AGUA DULCE SpA</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133720&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO SECTOR POCOIHUEN COMUNA DE COCHAMO X REGION, N PERT 201101022 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, ESTERO RELONCAVI, COMUNA DE COCHAMO, X REGION N° PERT 96101013 (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,7 +6391,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>CALETA BAY AGUA DULCE SpA</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133720&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, ESTERO RELONCAVI, COMUNA DE COCHAMO, X REGION N° PERT 96101013 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PUNTA TRES CRUCES, ALERCE, COMUNA DE COCHAMO, X REGION N°PERT 93101125 (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PUNTA TRES CRUCES, ALERCE, COMUNA DE COCHAMO, X REGION N°PERT 93101125 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS ESTE PUNTA IGLESIA COMUNA DE COCHAMO X REGION N° PERT 93101124 (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS ESTE PUNTA IGLESIA COMUNA DE COCHAMO X REGION N° PERT 93101124 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS , POCOIHUEN ALTO I, ESTERO RELONCAVI, COMUNA DE COCHAMO, N°PERT 96101012 (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Miguel Nenadovich Del Río</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133628&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Este Morro Chico (N° de Sol. 200101041) (e-seia)</t>
+          <t>Punta Peñasmo (N°Sol. 200101048) (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Jaquelinne De Lourdes Castillo Rodríguez</t>
+          <t>Andrés Cornelio Vallejos Gatica</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=128144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=130936&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Punta Peñasmo (N°Sol. 200101048) (e-seia)</t>
+          <t>Punta Chaparano (N° Sol. 200101045) (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=130936&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Punta Chaparano (N° Sol. 200101045) (e-seia)</t>
+          <t>Centro de engorda de salmonideos Farellones Marimelli, estero de Reloncaví, Comuna de Cochamó, X región, Nº Pert. 94101037 (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,11 +7015,11 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Andrés Cornelio Vallejos Gatica</t>
+          <t>Salmones Caleta Bay S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmonideos Farellones Marimelli, estero de Reloncaví, Comuna de Cochamó, X región, Nº Pert. 94101037 (e-seia)</t>
+          <t>Este Morro Chico (N° de Sol. 200101041) (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,11 +7063,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Salmones Caleta Bay S.A.</t>
+          <t>Jaquelinne De Lourdes Castillo Rodríguez</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=128144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7159,7 +7159,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Empresa Pesquera Apiao S.A.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Empresa Pesquera Apiao S.A.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Ampliación de la Concesión Centro de Engorda Serapio, Aguas Claras S.A. (e-seia)</t>
+          <t>Ampliación de la Concesión Centro de Engorda Punta Zenteno, Aguas Claras S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,11 +7351,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>656</v>
+        <v>394</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Ampliación de la Concesión Centro de Engorda Punta Zenteno, Aguas Claras S.A. (e-seia)</t>
+          <t>Ampliación de la Concesión Centro de Engorda Sotomó, Aguas Claras S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7403,7 +7403,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>394</v>
+        <v>656</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Ampliación de la Concesión Centro de Engorda Sotomó, Aguas Claras S.A. (e-seia)</t>
+          <t>Ampliación de la Concesión Centro de Engorda Serapio, Aguas Claras S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,7 +7447,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">

--- a/data/Cochamó.xlsx
+++ b/data/Cochamó.xlsx
@@ -2324,7 +2324,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO SECTOR CHAIQUEN, COMUNA DE COCHAMO, X REGION N° PERT 201101021 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS , POCOIHUEN ALTO I, ESTERO RELONCAVI, COMUNA DE COCHAMO, N°PERT 96101012 (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,7 +6295,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Miguel Nenadovich Del Río</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133628&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO SECTOR POCOIHUEN COMUNA DE COCHAMO X REGION, N PERT 201101022 (e-seia)</t>
+          <t>CENTRO DE CULTIVO SECTOR CHAIQUEN, COMUNA DE COCHAMO, X REGION N° PERT 201101021 (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,7 +6343,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>CALETA BAY AGUA DULCE SpA</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133720&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, ESTERO RELONCAVI, COMUNA DE COCHAMO, X REGION N° PERT 96101013 (e-seia)</t>
+          <t>CENTRO DE CULTIVO SECTOR POCOIHUEN COMUNA DE COCHAMO X REGION, N PERT 201101022 (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,7 +6391,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>CALETA BAY AGUA DULCE SpA</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133720&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PUNTA TRES CRUCES, ALERCE, COMUNA DE COCHAMO, X REGION N°PERT 93101125 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, ESTERO RELONCAVI, COMUNA DE COCHAMO, X REGION N° PERT 96101013 (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS ESTE PUNTA IGLESIA COMUNA DE COCHAMO X REGION N° PERT 93101124 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS, PUNTA TRES CRUCES, ALERCE, COMUNA DE COCHAMO, X REGION N°PERT 93101125 (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDEOS , POCOIHUEN ALTO I, ESTERO RELONCAVI, COMUNA DE COCHAMO, N°PERT 96101012 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDEOS ESTE PUNTA IGLESIA COMUNA DE COCHAMO X REGION N° PERT 93101124 (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Miguel Nenadovich Del Río</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133628&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Punta Peñasmo (N°Sol. 200101048) (e-seia)</t>
+          <t>Este Morro Chico (N° de Sol. 200101041) (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Andrés Cornelio Vallejos Gatica</t>
+          <t>Jaquelinne De Lourdes Castillo Rodríguez</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=130936&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=128144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Punta Chaparano (N° Sol. 200101045) (e-seia)</t>
+          <t>Punta Peñasmo (N°Sol. 200101048) (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=130936&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmonideos Farellones Marimelli, estero de Reloncaví, Comuna de Cochamó, X región, Nº Pert. 94101037 (e-seia)</t>
+          <t>Punta Chaparano (N° Sol. 200101045) (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,11 +7015,11 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Salmones Caleta Bay S.A.</t>
+          <t>Andrés Cornelio Vallejos Gatica</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Este Morro Chico (N° de Sol. 200101041) (e-seia)</t>
+          <t>Centro de engorda de salmonideos Farellones Marimelli, estero de Reloncaví, Comuna de Cochamó, X región, Nº Pert. 94101037 (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,11 +7063,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Jaquelinne De Lourdes Castillo Rodríguez</t>
+          <t>Salmones Caleta Bay S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=128144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Ampliación de la Concesión Centro de Engorda Punta Zenteno, Aguas Claras S.A. (e-seia)</t>
+          <t>Ampliación de la Concesión Centro de Engorda Serapio, Aguas Claras S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,11 +7351,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>394</v>
+        <v>656</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Ampliación de la Concesión Centro de Engorda Sotomó, Aguas Claras S.A. (e-seia)</t>
+          <t>Ampliación de la Concesión Centro de Engorda Punta Zenteno, Aguas Claras S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7403,7 +7403,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>656</v>
+        <v>394</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Ampliación de la Concesión Centro de Engorda Serapio, Aguas Claras S.A. (e-seia)</t>
+          <t>Ampliación de la Concesión Centro de Engorda Sotomó, Aguas Claras S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,7 +7447,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
